--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Netology\DIPLOMQA\fmh_android_15_03_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EBC218-A806-4A9E-A963-5AB9764D85D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9B9F7F-1B81-4743-916B-5BECE40FAB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1464,11 +1464,11 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1497,12 +1497,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1511,6 +1505,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1801,9 +1801,9 @@
   <dimension ref="A1:K347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="L10:M10"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141:C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,13 +2705,13 @@
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37">
+      <c r="A47" s="35">
         <v>14</v>
       </c>
       <c r="B47" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="18" t="s">
         <v>76</v>
       </c>
@@ -2728,14 +2728,14 @@
         <v>18</v>
       </c>
       <c r="I47" s="18"/>
-      <c r="J47" s="23"/>
+      <c r="J47" s="37"/>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="24"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="29"/>
-      <c r="E48" s="36"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="3" t="s">
         <v>112</v>
       </c>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H48" s="40"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="24"/>
+      <c r="J48" s="38"/>
     </row>
     <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
@@ -2766,7 +2766,7 @@
       <c r="G49" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="H49" s="34" t="s">
+      <c r="H49" s="23" t="s">
         <v>46</v>
       </c>
       <c r="I49" s="13" t="s">
@@ -2786,7 +2786,7 @@
       <c r="G50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H50" s="34"/>
+      <c r="H50" s="23"/>
       <c r="I50" s="13"/>
       <c r="J50" s="14"/>
     </row>
@@ -2802,7 +2802,7 @@
       <c r="G51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="35"/>
+      <c r="H51" s="24"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
     </row>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>127</v>
@@ -3380,7 +3380,7 @@
     </row>
     <row r="83" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>136</v>
@@ -3534,7 +3534,7 @@
     </row>
     <row r="92" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>148</v>
@@ -3608,7 +3608,7 @@
     </row>
     <row r="96" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>153</v>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="102" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>158</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="110" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>170</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="118" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>175</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="127" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>180</v>
@@ -4316,7 +4316,7 @@
     </row>
     <row r="137" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>85</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="141" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>188</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="144" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>193</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="148" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>198</v>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="151" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>201</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="154" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>202</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="159" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>114</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="164" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B164" s="13" t="s">
         <v>212</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="169" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>215</v>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="174" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>216</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="178" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>220</v>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="183" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B183" s="13" t="s">
         <v>223</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="189" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B189" s="13" t="s">
         <v>232</v>
@@ -5356,7 +5356,7 @@
     </row>
     <row r="194" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B194" s="13" t="s">
         <v>237</v>
@@ -5462,7 +5462,7 @@
     </row>
     <row r="200" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B200" s="13" t="s">
         <v>242</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="204" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B204" s="13" t="s">
         <v>243</v>
@@ -5642,7 +5642,7 @@
     </row>
     <row r="210" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B210" s="13" t="s">
         <v>247</v>
@@ -5844,7 +5844,7 @@
     </row>
     <row r="222" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B222" s="13" t="s">
         <v>266</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="227" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B227" s="13" t="s">
         <v>284</v>
@@ -7134,7 +7134,7 @@
     </row>
     <row r="293" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A293" s="12">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B293" s="13" t="s">
         <v>366</v>
@@ -7174,7 +7174,7 @@
       <c r="I294" s="14"/>
       <c r="J294" s="14"/>
     </row>
-    <row r="295" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="12"/>
       <c r="B295" s="13"/>
       <c r="C295" s="14"/>
@@ -7259,7 +7259,6 @@
     <row r="347" ht="32.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="516">
-    <mergeCell ref="E56:E57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="A63:J63"/>
     <mergeCell ref="A64:A67"/>
@@ -7270,7 +7269,6 @@
     <mergeCell ref="H64:H67"/>
     <mergeCell ref="I64:I67"/>
     <mergeCell ref="J64:J67"/>
-    <mergeCell ref="I53:I55"/>
     <mergeCell ref="J53:J55"/>
     <mergeCell ref="I60:I62"/>
     <mergeCell ref="J60:J62"/>
@@ -7294,6 +7292,7 @@
     <mergeCell ref="B56:B57"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="A44:A46"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="C44:C46"/>
@@ -7309,6 +7308,7 @@
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -7409,7 +7409,6 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="H3:H5"/>
-    <mergeCell ref="J47:J48"/>
     <mergeCell ref="A68:A71"/>
     <mergeCell ref="B68:B71"/>
     <mergeCell ref="C68:C71"/>
@@ -7433,6 +7432,7 @@
     <mergeCell ref="D53:D55"/>
     <mergeCell ref="E53:E55"/>
     <mergeCell ref="H53:H55"/>
+    <mergeCell ref="I53:I55"/>
     <mergeCell ref="A72:A76"/>
     <mergeCell ref="B72:B76"/>
     <mergeCell ref="C72:C76"/>

--- a/Cases.xlsx
+++ b/Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Netology\DIPLOMQA\fmh_android_15_03_24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9B9F7F-1B81-4743-916B-5BECE40FAB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BF625A-8B27-443A-B5FD-C24C6BEDDB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="372">
   <si>
     <t>Комментарий</t>
   </si>
@@ -1801,9 +1801,9 @@
   <dimension ref="A1:K347"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C141" sqref="C141:C143"/>
+      <selection pane="bottomLeft" activeCell="J258" sqref="J258:J261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1968,9 @@
         <v>18</v>
       </c>
       <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -1984,7 +1986,7 @@
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -2000,7 +2002,7 @@
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
@@ -2016,7 +2018,7 @@
       </c>
       <c r="H10" s="29"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
@@ -2042,7 +2044,9 @@
         <v>18</v>
       </c>
       <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -2058,7 +2062,7 @@
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
@@ -2090,7 +2094,7 @@
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
@@ -2116,7 +2120,9 @@
         <v>18</v>
       </c>
       <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="J15" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
@@ -2132,7 +2138,7 @@
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
@@ -2148,7 +2154,7 @@
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
@@ -2164,7 +2170,7 @@
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -2268,7 +2274,9 @@
         <v>18</v>
       </c>
       <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="J23" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
@@ -2284,7 +2292,7 @@
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -2300,7 +2308,7 @@
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="12"/>
@@ -2316,7 +2324,7 @@
       </c>
       <c r="H26" s="29"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
@@ -2342,7 +2350,9 @@
         <v>18</v>
       </c>
       <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="12"/>
@@ -2358,7 +2368,7 @@
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="12"/>
@@ -2374,7 +2384,7 @@
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
@@ -2390,7 +2400,7 @@
       </c>
       <c r="H30" s="29"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
@@ -2430,7 +2440,9 @@
         <v>18</v>
       </c>
       <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="J32" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
@@ -2472,7 +2484,9 @@
         <v>18</v>
       </c>
       <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
@@ -2514,7 +2528,9 @@
         <v>18</v>
       </c>
       <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
+      <c r="J36" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="12"/>
@@ -2556,7 +2572,9 @@
         <v>18</v>
       </c>
       <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
+      <c r="J38" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12"/>
@@ -2728,7 +2746,9 @@
         <v>18</v>
       </c>
       <c r="I47" s="18"/>
-      <c r="J47" s="37"/>
+      <c r="J47" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
@@ -2744,7 +2764,7 @@
       </c>
       <c r="H48" s="40"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="38"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
@@ -2844,7 +2864,9 @@
         <v>18</v>
       </c>
       <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
+      <c r="J53" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
@@ -2902,7 +2924,9 @@
         <v>18</v>
       </c>
       <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
+      <c r="J56" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="57" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12"/>
@@ -2944,7 +2968,9 @@
         <v>18</v>
       </c>
       <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
+      <c r="J58" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="59" spans="1:10" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12"/>
@@ -3132,7 +3158,9 @@
         <v>18</v>
       </c>
       <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
+      <c r="J68" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12"/>
@@ -3402,7 +3430,9 @@
         <v>18</v>
       </c>
       <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
+      <c r="J83" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
@@ -3556,7 +3586,9 @@
         <v>18</v>
       </c>
       <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
+      <c r="J92" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="93" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
@@ -3630,7 +3662,9 @@
         <v>18</v>
       </c>
       <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
+      <c r="J96" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
@@ -3736,7 +3770,9 @@
         <v>18</v>
       </c>
       <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
+      <c r="J102" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="103" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
@@ -4170,7 +4206,9 @@
         <v>18</v>
       </c>
       <c r="I127" s="14"/>
-      <c r="J127" s="14"/>
+      <c r="J127" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="128" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="12"/>
@@ -4338,7 +4376,9 @@
         <v>18</v>
       </c>
       <c r="I137" s="14"/>
-      <c r="J137" s="14"/>
+      <c r="J137" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="138" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="12"/>
@@ -4602,7 +4642,9 @@
         <v>18</v>
       </c>
       <c r="I151" s="14"/>
-      <c r="J151" s="14"/>
+      <c r="J151" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="152" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
@@ -5664,7 +5706,9 @@
         <v>18</v>
       </c>
       <c r="I210" s="14"/>
-      <c r="J210" s="14"/>
+      <c r="J210" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="211" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
@@ -5866,7 +5910,9 @@
         <v>18</v>
       </c>
       <c r="I222" s="14"/>
-      <c r="J222" s="14"/>
+      <c r="J222" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="223" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12"/>
@@ -5958,7 +6004,9 @@
       <c r="I227" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="J227" s="14"/>
+      <c r="J227" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="228" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12"/>
@@ -6504,7 +6552,9 @@
       <c r="I258" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="J258" s="14"/>
+      <c r="J258" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="259" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12"/>
@@ -6580,7 +6630,9 @@
       <c r="I262" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="J262" s="14"/>
+      <c r="J262" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="263" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A263" s="12"/>
@@ -6654,7 +6706,9 @@
         <v>18</v>
       </c>
       <c r="I266" s="14"/>
-      <c r="J266" s="14"/>
+      <c r="J266" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="267" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12"/>
